--- a/outputs-HGR-r202/train-o__Clostridiales_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-o__Clostridiales_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="1682">
   <si>
     <t>Row</t>
   </si>
@@ -4058,6 +4059,1011 @@
   </si>
   <si>
     <t>label_UMGS990_64.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_12.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_18.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_27.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_4.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_7.fasta</t>
+  </si>
+  <si>
+    <t>label_12718_7_39_9.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_1.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_10.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_11.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_18.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_2.fasta</t>
+  </si>
+  <si>
+    <t>label_13414_6_73_7.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_11.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_12.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_13.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_14.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_18.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_19.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_2.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_21.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_24.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_3.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_33.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_4.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_41.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_75_8.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_77_1.fasta</t>
+  </si>
+  <si>
+    <t>label_13470_2_77_14.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_30_10.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_30_13.fasta</t>
+  </si>
+  <si>
+    <t>label_14207_7_30_9.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_0.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_1.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_11.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_16.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_19.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_20.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_25.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_32.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_33.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_42.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_49.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_5.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_2_5_6.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_26_3.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_26_6.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_26_9.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_13.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_16.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_2.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_20.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_23.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_29.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_34.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_41.fasta</t>
+  </si>
+  <si>
+    <t>label_20298_3_52_42.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_1.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_14.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_15.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_18.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_22.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_28.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_3.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_30.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_32.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_33.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_40.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_41.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_46.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_55.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_58.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_69.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_7.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_71.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_79.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_85.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_90.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_91.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_77_93.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_0.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_1.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_10.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_13.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_18.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_2.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_3.fasta</t>
+  </si>
+  <si>
+    <t>label_8080_1_81_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000158375_2.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000285575_0.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_12.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_15.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_27.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_29.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_3.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_48.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_49.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_51.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_52.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_53.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_67.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_71.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000320405_9.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000751675_1.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000751675_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000753355_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_100.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_101.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_107.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_108.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_110.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_113.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_118.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_125.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_19.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_21.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_22.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_24.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_31.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_4.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_46.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_48.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_49.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_53.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_55.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_58.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_60.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_70.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_8.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_83.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_84.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000820705_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1006_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1088_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1244_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS128_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1669_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_133.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_137.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1675_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_120.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_122.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_131.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_140.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_142.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_87.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1808_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS222_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS53_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_116.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_79.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS558_93.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS620_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_101.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_67.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS632_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS990_63.fasta</t>
   </si>
 </sst>
 </file>
@@ -4078,7 +5084,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -4094,11 +5100,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -4108,6 +5116,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23031,4 +24041,4723 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D336"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" customWidth="true"/>
+    <col min="4" max="4" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="9" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="9" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="9" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="9" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="9" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="9" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="9" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="9" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="9" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="9" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="9" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="9" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="9" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="9" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="9" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="9" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="9" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="9" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="9" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="9" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="9" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="9" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="9" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="9" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="9" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="9" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="9" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="9" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="9" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="9" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="9" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="9" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="9" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="9" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="9" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="9" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="9" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="9" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="9" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="9" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="9" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="9" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="9" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="9" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="9" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="9" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="9" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="9" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="9" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="9" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="9" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="9" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="9" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>